--- a/medicine/Autisme/Steve_Silberman/Steve_Silberman.xlsx
+++ b/medicine/Autisme/Steve_Silberman/Steve_Silberman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steve Silberman, né le 23 décembre 1957[1] à Ithaca[1],[2], est un écrivain américain habitant San Francisco, en Californie. Silberman est plus connu comme un auteur de Wired magazine, dont il a été rédacteur et contributeur pendant 14 ans. En 2010, Silberman a reçu un prix de l'Association américaine pour l'avancement des sciences. Son article vedette The Placebo Problem[3] traite de l'impact des placebo sur l'industrie pharmaceutique[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve Silberman, né le 23 décembre 1957 à Ithaca est un écrivain américain habitant San Francisco, en Californie. Silberman est plus connu comme un auteur de Wired magazine, dont il a été rédacteur et contributeur pendant 14 ans. En 2010, Silberman a reçu un prix de l'Association américaine pour l'avancement des sciences. Son article vedette The Placebo Problem traite de l'impact des placebo sur l'industrie pharmaceutique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steve Silberman naît en 1957 à Ithaca, dans l'État de New York. Adolescent, il étudie avec des auteurs de la Beat Generation : Allen Ginsberg, William S. Burroughs et Gregory N. Corso[2]. Plus tard, il est l'assistant de Ginsberg à l'université Naropa (en) de Boulder, dans le Colorado[2]. Il obtient plusieurs diplômes en psychologie à l'Oberlin College, dans l'Ohio, puis en littérature anglaise à l'université de Californie à Berkeley[2]. Il publie également dans The New Yorker, Nature et Time. Son TED talk, intitulé The Forgotten History of Autism (« L'Histoire oubliée de l'autisme »), a été vu plus d'un million de fois[2].
-En 2015, il publie NeuroTribes, une essai sur l'autisme et la neurodiversité. Succès de librairie aux États-Unis et au Royaume-Uni[2], il remporte le Prix Samuel Johnson[5],[6]. Silberman a écrit l'article The Geek Syndrome[7], portant sur l'autisme dans la Silicon Valley, qui a été référencé par de nombreuses sources et décrit comme significatif pour la perception de l'autisme[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve Silberman naît en 1957 à Ithaca, dans l'État de New York. Adolescent, il étudie avec des auteurs de la Beat Generation : Allen Ginsberg, William S. Burroughs et Gregory N. Corso. Plus tard, il est l'assistant de Ginsberg à l'université Naropa (en) de Boulder, dans le Colorado. Il obtient plusieurs diplômes en psychologie à l'Oberlin College, dans l'Ohio, puis en littérature anglaise à l'université de Californie à Berkeley. Il publie également dans The New Yorker, Nature et Time. Son TED talk, intitulé The Forgotten History of Autism (« L'Histoire oubliée de l'autisme »), a été vu plus d'un million de fois.
+En 2015, il publie NeuroTribes, une essai sur l'autisme et la neurodiversité. Succès de librairie aux États-Unis et au Royaume-Uni, il remporte le Prix Samuel Johnson,. Silberman a écrit l'article The Geek Syndrome, portant sur l'autisme dans la Silicon Valley, qui a été référencé par de nombreuses sources et décrit comme significatif pour la perception de l'autisme.
 </t>
         </is>
       </c>
